--- a/locations/A08.xlsx
+++ b/locations/A08.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/bulk_report_webapp/locations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/Deployment/bulk_report_webapp/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A96666-159C-4DA1-9A0B-1C122F6E0389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5936AB3-6AD9-468B-95DC-05A603856AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="396">
   <si>
     <t>Bay:</t>
   </si>
@@ -41,568 +41,610 @@
     <t>G</t>
   </si>
   <si>
-    <t>08021G</t>
-  </si>
-  <si>
-    <t>08022G</t>
-  </si>
-  <si>
-    <t>08041G</t>
-  </si>
-  <si>
-    <t>08042G</t>
-  </si>
-  <si>
-    <t>08061G</t>
-  </si>
-  <si>
-    <t>08062G</t>
-  </si>
-  <si>
-    <t>08082G</t>
-  </si>
-  <si>
-    <t>08101G</t>
-  </si>
-  <si>
-    <t>08102G</t>
-  </si>
-  <si>
-    <t>08121G</t>
-  </si>
-  <si>
-    <t>08122G</t>
-  </si>
-  <si>
-    <t>08141G</t>
-  </si>
-  <si>
-    <t>08142G</t>
-  </si>
-  <si>
-    <t>08161G</t>
-  </si>
-  <si>
-    <t>08162G</t>
-  </si>
-  <si>
-    <t>08181G</t>
-  </si>
-  <si>
-    <t>08182G</t>
-  </si>
-  <si>
-    <t>08201G</t>
-  </si>
-  <si>
-    <t>08221G</t>
-  </si>
-  <si>
-    <t>08222G</t>
-  </si>
-  <si>
-    <t>08241G</t>
-  </si>
-  <si>
-    <t>08242G</t>
-  </si>
-  <si>
-    <t>08261G</t>
-  </si>
-  <si>
-    <t>08262G</t>
-  </si>
-  <si>
-    <t>08281G</t>
-  </si>
-  <si>
-    <t>08282G</t>
+    <t>08272G</t>
+  </si>
+  <si>
+    <t>08271G</t>
+  </si>
+  <si>
+    <t>08252G</t>
+  </si>
+  <si>
+    <t>08251G</t>
+  </si>
+  <si>
+    <t>08232G</t>
+  </si>
+  <si>
+    <t>08231G</t>
+  </si>
+  <si>
+    <t>08212G</t>
+  </si>
+  <si>
+    <t>08211G</t>
+  </si>
+  <si>
+    <t>08192G</t>
+  </si>
+  <si>
+    <t>08191G</t>
+  </si>
+  <si>
+    <t>08172G</t>
+  </si>
+  <si>
+    <t>08171G</t>
+  </si>
+  <si>
+    <t>08152G</t>
+  </si>
+  <si>
+    <t>08151G</t>
+  </si>
+  <si>
+    <t>08132G</t>
+  </si>
+  <si>
+    <t>08131G</t>
+  </si>
+  <si>
+    <t>08112G</t>
+  </si>
+  <si>
+    <t>08111G</t>
+  </si>
+  <si>
+    <t>08092G</t>
+  </si>
+  <si>
+    <t>08091G</t>
+  </si>
+  <si>
+    <t>08072G</t>
+  </si>
+  <si>
+    <t>08071G</t>
+  </si>
+  <si>
+    <t>08052G</t>
+  </si>
+  <si>
+    <t>08051G</t>
+  </si>
+  <si>
+    <t>08032G</t>
+  </si>
+  <si>
+    <t>08031G</t>
+  </si>
+  <si>
+    <t>08012G</t>
+  </si>
+  <si>
+    <t>08011G</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>08021F</t>
-  </si>
-  <si>
-    <t>08022F</t>
-  </si>
-  <si>
-    <t>08041F</t>
-  </si>
-  <si>
-    <t>08042F</t>
-  </si>
-  <si>
-    <t>08061F</t>
-  </si>
-  <si>
-    <t>08062F</t>
-  </si>
-  <si>
-    <t>08082F</t>
-  </si>
-  <si>
-    <t>08101F</t>
-  </si>
-  <si>
-    <t>08102F</t>
-  </si>
-  <si>
-    <t>08121F</t>
-  </si>
-  <si>
-    <t>08122F</t>
-  </si>
-  <si>
-    <t>08141F</t>
-  </si>
-  <si>
-    <t>08142F</t>
-  </si>
-  <si>
-    <t>08161F</t>
-  </si>
-  <si>
-    <t>08162F</t>
-  </si>
-  <si>
-    <t>08181F</t>
-  </si>
-  <si>
-    <t>08182F</t>
-  </si>
-  <si>
-    <t>08201F</t>
-  </si>
-  <si>
-    <t>08221F</t>
-  </si>
-  <si>
-    <t>08222F</t>
-  </si>
-  <si>
-    <t>08241F</t>
-  </si>
-  <si>
-    <t>08242F</t>
-  </si>
-  <si>
-    <t>08261F</t>
-  </si>
-  <si>
-    <t>08262F</t>
-  </si>
-  <si>
-    <t>08281F</t>
-  </si>
-  <si>
-    <t>08282F</t>
+    <t>08272F</t>
+  </si>
+  <si>
+    <t>08271F</t>
+  </si>
+  <si>
+    <t>08252F</t>
+  </si>
+  <si>
+    <t>08251F</t>
+  </si>
+  <si>
+    <t>08232F</t>
+  </si>
+  <si>
+    <t>08231F</t>
+  </si>
+  <si>
+    <t>08212F</t>
+  </si>
+  <si>
+    <t>08211F</t>
+  </si>
+  <si>
+    <t>08192F</t>
+  </si>
+  <si>
+    <t>08191F</t>
+  </si>
+  <si>
+    <t>08172F</t>
+  </si>
+  <si>
+    <t>08171F</t>
+  </si>
+  <si>
+    <t>08152F</t>
+  </si>
+  <si>
+    <t>08151F</t>
+  </si>
+  <si>
+    <t>08132F</t>
+  </si>
+  <si>
+    <t>08131F</t>
+  </si>
+  <si>
+    <t>08112F</t>
+  </si>
+  <si>
+    <t>08111F</t>
+  </si>
+  <si>
+    <t>08092F</t>
+  </si>
+  <si>
+    <t>08091F</t>
+  </si>
+  <si>
+    <t>08072F</t>
+  </si>
+  <si>
+    <t>08071F</t>
+  </si>
+  <si>
+    <t>08052F</t>
+  </si>
+  <si>
+    <t>08051F</t>
+  </si>
+  <si>
+    <t>08032F</t>
+  </si>
+  <si>
+    <t>08031F</t>
+  </si>
+  <si>
+    <t>08012F</t>
+  </si>
+  <si>
+    <t>08011F</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>08021E</t>
-  </si>
-  <si>
-    <t>08022E</t>
-  </si>
-  <si>
-    <t>08041E</t>
-  </si>
-  <si>
-    <t>08042E</t>
-  </si>
-  <si>
-    <t>08061E</t>
-  </si>
-  <si>
-    <t>08062E</t>
-  </si>
-  <si>
-    <t>08082E</t>
-  </si>
-  <si>
-    <t>08101E</t>
-  </si>
-  <si>
-    <t>08102E</t>
-  </si>
-  <si>
-    <t>08121E</t>
-  </si>
-  <si>
-    <t>08122E</t>
-  </si>
-  <si>
-    <t>08141E</t>
-  </si>
-  <si>
-    <t>08142E</t>
-  </si>
-  <si>
-    <t>08161E</t>
-  </si>
-  <si>
-    <t>08162E</t>
-  </si>
-  <si>
-    <t>08181E</t>
-  </si>
-  <si>
-    <t>08182E</t>
-  </si>
-  <si>
-    <t>08201E</t>
-  </si>
-  <si>
-    <t>08221E</t>
-  </si>
-  <si>
-    <t>08222E</t>
-  </si>
-  <si>
-    <t>08241E</t>
-  </si>
-  <si>
-    <t>08242E</t>
-  </si>
-  <si>
-    <t>08261E</t>
-  </si>
-  <si>
-    <t>08262E</t>
-  </si>
-  <si>
-    <t>08281E</t>
-  </si>
-  <si>
-    <t>08282E</t>
+    <t>08272E</t>
+  </si>
+  <si>
+    <t>08271E</t>
+  </si>
+  <si>
+    <t>08252E</t>
+  </si>
+  <si>
+    <t>08251E</t>
+  </si>
+  <si>
+    <t>08232E</t>
+  </si>
+  <si>
+    <t>08231E</t>
+  </si>
+  <si>
+    <t>08212E</t>
+  </si>
+  <si>
+    <t>08211E</t>
+  </si>
+  <si>
+    <t>08192E</t>
+  </si>
+  <si>
+    <t>08191E</t>
+  </si>
+  <si>
+    <t>08172E</t>
+  </si>
+  <si>
+    <t>08171E</t>
+  </si>
+  <si>
+    <t>08152E</t>
+  </si>
+  <si>
+    <t>08151E</t>
+  </si>
+  <si>
+    <t>08132E</t>
+  </si>
+  <si>
+    <t>08131E</t>
+  </si>
+  <si>
+    <t>08112E</t>
+  </si>
+  <si>
+    <t>08111E</t>
+  </si>
+  <si>
+    <t>08092E</t>
+  </si>
+  <si>
+    <t>08091E</t>
+  </si>
+  <si>
+    <t>08072E</t>
+  </si>
+  <si>
+    <t>08071E</t>
+  </si>
+  <si>
+    <t>08052E</t>
+  </si>
+  <si>
+    <t>08051E</t>
+  </si>
+  <si>
+    <t>08032E</t>
+  </si>
+  <si>
+    <t>08031E</t>
+  </si>
+  <si>
+    <t>08012E</t>
+  </si>
+  <si>
+    <t>08011E</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>08021D</t>
-  </si>
-  <si>
-    <t>08022D</t>
-  </si>
-  <si>
-    <t>08041D</t>
-  </si>
-  <si>
-    <t>08042D</t>
-  </si>
-  <si>
-    <t>08061D</t>
-  </si>
-  <si>
-    <t>08062D</t>
-  </si>
-  <si>
-    <t>08082D</t>
-  </si>
-  <si>
-    <t>08101D</t>
-  </si>
-  <si>
-    <t>08102D</t>
-  </si>
-  <si>
-    <t>08121D</t>
-  </si>
-  <si>
-    <t>08122D</t>
-  </si>
-  <si>
-    <t>08141D</t>
-  </si>
-  <si>
-    <t>08142D</t>
-  </si>
-  <si>
-    <t>08161D</t>
-  </si>
-  <si>
-    <t>08162D</t>
-  </si>
-  <si>
-    <t>08181D</t>
-  </si>
-  <si>
-    <t>08182D</t>
-  </si>
-  <si>
-    <t>08201D</t>
-  </si>
-  <si>
-    <t>08221D</t>
-  </si>
-  <si>
-    <t>08222D</t>
-  </si>
-  <si>
-    <t>08241D</t>
-  </si>
-  <si>
-    <t>08242D</t>
-  </si>
-  <si>
-    <t>08261D</t>
-  </si>
-  <si>
-    <t>08262D</t>
-  </si>
-  <si>
-    <t>08281D</t>
-  </si>
-  <si>
-    <t>08282D</t>
+    <t>08272D</t>
+  </si>
+  <si>
+    <t>08271D</t>
+  </si>
+  <si>
+    <t>08252D</t>
+  </si>
+  <si>
+    <t>08251D</t>
+  </si>
+  <si>
+    <t>08232D</t>
+  </si>
+  <si>
+    <t>08231D</t>
+  </si>
+  <si>
+    <t>08212D</t>
+  </si>
+  <si>
+    <t>08211D</t>
+  </si>
+  <si>
+    <t>08192D</t>
+  </si>
+  <si>
+    <t>08191D</t>
+  </si>
+  <si>
+    <t>08172D</t>
+  </si>
+  <si>
+    <t>08171D</t>
+  </si>
+  <si>
+    <t>08152D</t>
+  </si>
+  <si>
+    <t>08151D</t>
+  </si>
+  <si>
+    <t>08132D</t>
+  </si>
+  <si>
+    <t>08131D</t>
+  </si>
+  <si>
+    <t>08112D</t>
+  </si>
+  <si>
+    <t>08111D</t>
+  </si>
+  <si>
+    <t>08092D</t>
+  </si>
+  <si>
+    <t>08091D</t>
+  </si>
+  <si>
+    <t>08072D</t>
+  </si>
+  <si>
+    <t>08071D</t>
+  </si>
+  <si>
+    <t>08052D</t>
+  </si>
+  <si>
+    <t>08051D</t>
+  </si>
+  <si>
+    <t>08032D</t>
+  </si>
+  <si>
+    <t>08031D</t>
+  </si>
+  <si>
+    <t>08012D</t>
+  </si>
+  <si>
+    <t>08011D</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>08021C</t>
-  </si>
-  <si>
-    <t>08022C</t>
-  </si>
-  <si>
-    <t>08041C</t>
-  </si>
-  <si>
-    <t>08042C</t>
-  </si>
-  <si>
-    <t>08061C</t>
-  </si>
-  <si>
-    <t>08062C</t>
-  </si>
-  <si>
-    <t>08082C</t>
-  </si>
-  <si>
-    <t>08101C</t>
-  </si>
-  <si>
-    <t>08102C</t>
-  </si>
-  <si>
-    <t>08121C</t>
-  </si>
-  <si>
-    <t>08122C</t>
-  </si>
-  <si>
-    <t>08141C</t>
-  </si>
-  <si>
-    <t>08142C</t>
-  </si>
-  <si>
-    <t>08161C</t>
-  </si>
-  <si>
-    <t>08162C</t>
-  </si>
-  <si>
-    <t>08181C</t>
-  </si>
-  <si>
-    <t>08182C</t>
-  </si>
-  <si>
-    <t>08201C</t>
-  </si>
-  <si>
-    <t>08221C</t>
-  </si>
-  <si>
-    <t>08222C</t>
-  </si>
-  <si>
-    <t>08241C</t>
-  </si>
-  <si>
-    <t>08242C</t>
-  </si>
-  <si>
-    <t>08261C</t>
-  </si>
-  <si>
-    <t>08262C</t>
-  </si>
-  <si>
-    <t>08281C</t>
-  </si>
-  <si>
-    <t>08282C</t>
+    <t>08272C</t>
+  </si>
+  <si>
+    <t>08271C</t>
+  </si>
+  <si>
+    <t>08252C</t>
+  </si>
+  <si>
+    <t>08251C</t>
+  </si>
+  <si>
+    <t>08232C</t>
+  </si>
+  <si>
+    <t>08231C</t>
+  </si>
+  <si>
+    <t>08212C</t>
+  </si>
+  <si>
+    <t>08211C</t>
+  </si>
+  <si>
+    <t>08192C</t>
+  </si>
+  <si>
+    <t>08191C</t>
+  </si>
+  <si>
+    <t>08172C</t>
+  </si>
+  <si>
+    <t>08171C</t>
+  </si>
+  <si>
+    <t>08152C</t>
+  </si>
+  <si>
+    <t>08151C</t>
+  </si>
+  <si>
+    <t>08132C</t>
+  </si>
+  <si>
+    <t>08131C</t>
+  </si>
+  <si>
+    <t>08112C</t>
+  </si>
+  <si>
+    <t>08111C</t>
+  </si>
+  <si>
+    <t>08092C</t>
+  </si>
+  <si>
+    <t>08091C</t>
+  </si>
+  <si>
+    <t>08072C</t>
+  </si>
+  <si>
+    <t>08071C</t>
+  </si>
+  <si>
+    <t>08052C</t>
+  </si>
+  <si>
+    <t>08051C</t>
+  </si>
+  <si>
+    <t>08032C</t>
+  </si>
+  <si>
+    <t>08031C</t>
+  </si>
+  <si>
+    <t>08012C</t>
+  </si>
+  <si>
+    <t>08011C</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>08021B</t>
-  </si>
-  <si>
-    <t>08022B</t>
-  </si>
-  <si>
-    <t>08041B</t>
-  </si>
-  <si>
-    <t>08042B</t>
-  </si>
-  <si>
-    <t>08061B</t>
-  </si>
-  <si>
-    <t>08062B</t>
-  </si>
-  <si>
-    <t>08082B</t>
-  </si>
-  <si>
-    <t>08101B</t>
-  </si>
-  <si>
-    <t>08102B</t>
-  </si>
-  <si>
-    <t>08121B</t>
-  </si>
-  <si>
-    <t>08122B</t>
-  </si>
-  <si>
-    <t>08141B</t>
-  </si>
-  <si>
-    <t>08142B</t>
-  </si>
-  <si>
-    <t>08161B</t>
-  </si>
-  <si>
-    <t>08162B</t>
-  </si>
-  <si>
-    <t>08181B</t>
-  </si>
-  <si>
-    <t>08182B</t>
-  </si>
-  <si>
-    <t>08201B</t>
-  </si>
-  <si>
-    <t>08221B</t>
-  </si>
-  <si>
-    <t>08222B</t>
-  </si>
-  <si>
-    <t>08241B</t>
-  </si>
-  <si>
-    <t>08242B</t>
-  </si>
-  <si>
-    <t>08261B</t>
-  </si>
-  <si>
-    <t>08262B</t>
-  </si>
-  <si>
-    <t>08281B</t>
-  </si>
-  <si>
-    <t>08282B</t>
+    <t>08272B</t>
+  </si>
+  <si>
+    <t>08271B</t>
+  </si>
+  <si>
+    <t>08252B</t>
+  </si>
+  <si>
+    <t>08251B</t>
+  </si>
+  <si>
+    <t>08232B</t>
+  </si>
+  <si>
+    <t>08231B</t>
+  </si>
+  <si>
+    <t>08212B</t>
+  </si>
+  <si>
+    <t>08211B</t>
+  </si>
+  <si>
+    <t>08192B</t>
+  </si>
+  <si>
+    <t>08191B</t>
+  </si>
+  <si>
+    <t>08172B</t>
+  </si>
+  <si>
+    <t>08171B</t>
+  </si>
+  <si>
+    <t>08152B</t>
+  </si>
+  <si>
+    <t>08151B</t>
+  </si>
+  <si>
+    <t>08132B</t>
+  </si>
+  <si>
+    <t>08131B</t>
+  </si>
+  <si>
+    <t>08112B</t>
+  </si>
+  <si>
+    <t>08111B</t>
+  </si>
+  <si>
+    <t>08092B</t>
+  </si>
+  <si>
+    <t>08091B</t>
+  </si>
+  <si>
+    <t>08072B</t>
+  </si>
+  <si>
+    <t>08071B</t>
+  </si>
+  <si>
+    <t>08052B</t>
+  </si>
+  <si>
+    <t>08051B</t>
+  </si>
+  <si>
+    <t>08032B</t>
+  </si>
+  <si>
+    <t>08031B</t>
+  </si>
+  <si>
+    <t>08012B</t>
+  </si>
+  <si>
+    <t>08011B</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>08021A</t>
-  </si>
-  <si>
-    <t>08022A</t>
-  </si>
-  <si>
-    <t>08041A</t>
-  </si>
-  <si>
-    <t>08042A</t>
-  </si>
-  <si>
-    <t>08061A</t>
-  </si>
-  <si>
-    <t>08062A</t>
-  </si>
-  <si>
-    <t>08082A</t>
-  </si>
-  <si>
-    <t>08101A</t>
-  </si>
-  <si>
-    <t>08102A</t>
-  </si>
-  <si>
-    <t>08121A</t>
-  </si>
-  <si>
-    <t>08122A</t>
-  </si>
-  <si>
-    <t>08141A</t>
-  </si>
-  <si>
-    <t>08142A</t>
-  </si>
-  <si>
-    <t>08161A</t>
-  </si>
-  <si>
-    <t>08162A</t>
-  </si>
-  <si>
-    <t>08181A</t>
-  </si>
-  <si>
-    <t>08182A</t>
-  </si>
-  <si>
-    <t>08201A</t>
-  </si>
-  <si>
-    <t>08221A</t>
-  </si>
-  <si>
-    <t>08222A</t>
-  </si>
-  <si>
-    <t>08241A</t>
-  </si>
-  <si>
-    <t>08242A</t>
-  </si>
-  <si>
-    <t>08261A</t>
-  </si>
-  <si>
-    <t>08262A</t>
-  </si>
-  <si>
-    <t>08281A</t>
-  </si>
-  <si>
-    <t>08282A</t>
+    <t>08272A</t>
+  </si>
+  <si>
+    <t>08271A</t>
+  </si>
+  <si>
+    <t>08252A</t>
+  </si>
+  <si>
+    <t>08251A</t>
+  </si>
+  <si>
+    <t>08232A</t>
+  </si>
+  <si>
+    <t>08231A</t>
+  </si>
+  <si>
+    <t>08212A</t>
+  </si>
+  <si>
+    <t>08211A</t>
+  </si>
+  <si>
+    <t>08192A</t>
+  </si>
+  <si>
+    <t>08191A</t>
+  </si>
+  <si>
+    <t>08172A</t>
+  </si>
+  <si>
+    <t>08171A</t>
+  </si>
+  <si>
+    <t>08152A</t>
+  </si>
+  <si>
+    <t>08151A</t>
+  </si>
+  <si>
+    <t>08132A</t>
+  </si>
+  <si>
+    <t>08131A</t>
+  </si>
+  <si>
+    <t>08112A</t>
+  </si>
+  <si>
+    <t>08111A</t>
+  </si>
+  <si>
+    <t>08092A</t>
+  </si>
+  <si>
+    <t>08091A</t>
+  </si>
+  <si>
+    <t>08072A</t>
+  </si>
+  <si>
+    <t>08071A</t>
+  </si>
+  <si>
+    <t>08052A</t>
+  </si>
+  <si>
+    <t>08051A</t>
+  </si>
+  <si>
+    <t>08032A</t>
+  </si>
+  <si>
+    <t>08031A</t>
+  </si>
+  <si>
+    <t>08012A</t>
+  </si>
+  <si>
+    <t>08011A</t>
   </si>
   <si>
     <t>→ Walking Path →</t>
@@ -619,592 +661,571 @@
 E</t>
   </si>
   <si>
-    <t>08272G</t>
-  </si>
-  <si>
-    <t>08271G</t>
-  </si>
-  <si>
-    <t>08252G</t>
-  </si>
-  <si>
-    <t>08251G</t>
-  </si>
-  <si>
-    <t>08232G</t>
-  </si>
-  <si>
-    <t>08231G</t>
-  </si>
-  <si>
-    <t>08212G</t>
-  </si>
-  <si>
-    <t>08211G</t>
-  </si>
-  <si>
-    <t>08192G</t>
-  </si>
-  <si>
-    <t>08191G</t>
-  </si>
-  <si>
-    <t>08172G</t>
-  </si>
-  <si>
-    <t>08171G</t>
-  </si>
-  <si>
-    <t>08152G</t>
-  </si>
-  <si>
-    <t>08151G</t>
-  </si>
-  <si>
-    <t>08132G</t>
-  </si>
-  <si>
-    <t>08131G</t>
-  </si>
-  <si>
-    <t>08112G</t>
-  </si>
-  <si>
-    <t>08111G</t>
-  </si>
-  <si>
-    <t>08092G</t>
-  </si>
-  <si>
-    <t>08091G</t>
-  </si>
-  <si>
-    <t>08072G</t>
-  </si>
-  <si>
-    <t>08071G</t>
-  </si>
-  <si>
-    <t>08052G</t>
-  </si>
-  <si>
-    <t>08051G</t>
-  </si>
-  <si>
-    <t>08032G</t>
-  </si>
-  <si>
-    <t>08031G</t>
-  </si>
-  <si>
-    <t>08012G</t>
-  </si>
-  <si>
-    <t>08011G</t>
-  </si>
-  <si>
-    <t>08272F</t>
-  </si>
-  <si>
-    <t>08271F</t>
-  </si>
-  <si>
-    <t>08252F</t>
-  </si>
-  <si>
-    <t>08251F</t>
-  </si>
-  <si>
-    <t>08232F</t>
-  </si>
-  <si>
-    <t>08231F</t>
-  </si>
-  <si>
-    <t>08212F</t>
-  </si>
-  <si>
-    <t>08211F</t>
-  </si>
-  <si>
-    <t>08192F</t>
-  </si>
-  <si>
-    <t>08191F</t>
-  </si>
-  <si>
-    <t>08172F</t>
-  </si>
-  <si>
-    <t>08171F</t>
-  </si>
-  <si>
-    <t>08152F</t>
-  </si>
-  <si>
-    <t>08151F</t>
-  </si>
-  <si>
-    <t>08132F</t>
-  </si>
-  <si>
-    <t>08131F</t>
-  </si>
-  <si>
-    <t>08112F</t>
-  </si>
-  <si>
-    <t>08111F</t>
-  </si>
-  <si>
-    <t>08092F</t>
-  </si>
-  <si>
-    <t>08091F</t>
-  </si>
-  <si>
-    <t>08072F</t>
-  </si>
-  <si>
-    <t>08071F</t>
-  </si>
-  <si>
-    <t>08052F</t>
-  </si>
-  <si>
-    <t>08051F</t>
-  </si>
-  <si>
-    <t>08032F</t>
-  </si>
-  <si>
-    <t>08031F</t>
-  </si>
-  <si>
-    <t>08012F</t>
-  </si>
-  <si>
-    <t>08011F</t>
-  </si>
-  <si>
-    <t>08272E</t>
-  </si>
-  <si>
-    <t>08271E</t>
-  </si>
-  <si>
-    <t>08252E</t>
-  </si>
-  <si>
-    <t>08251E</t>
-  </si>
-  <si>
-    <t>08232E</t>
-  </si>
-  <si>
-    <t>08231E</t>
-  </si>
-  <si>
-    <t>08212E</t>
-  </si>
-  <si>
-    <t>08211E</t>
-  </si>
-  <si>
-    <t>08192E</t>
-  </si>
-  <si>
-    <t>08191E</t>
-  </si>
-  <si>
-    <t>08172E</t>
-  </si>
-  <si>
-    <t>08171E</t>
-  </si>
-  <si>
-    <t>08152E</t>
-  </si>
-  <si>
-    <t>08151E</t>
-  </si>
-  <si>
-    <t>08132E</t>
-  </si>
-  <si>
-    <t>08131E</t>
-  </si>
-  <si>
-    <t>08112E</t>
-  </si>
-  <si>
-    <t>08111E</t>
-  </si>
-  <si>
-    <t>08092E</t>
-  </si>
-  <si>
-    <t>08091E</t>
-  </si>
-  <si>
-    <t>08072E</t>
-  </si>
-  <si>
-    <t>08071E</t>
-  </si>
-  <si>
-    <t>08052E</t>
-  </si>
-  <si>
-    <t>08051E</t>
-  </si>
-  <si>
-    <t>08032E</t>
-  </si>
-  <si>
-    <t>08031E</t>
-  </si>
-  <si>
-    <t>08012E</t>
-  </si>
-  <si>
-    <t>08011E</t>
-  </si>
-  <si>
-    <t>08272D</t>
-  </si>
-  <si>
-    <t>08271D</t>
-  </si>
-  <si>
-    <t>08252D</t>
-  </si>
-  <si>
-    <t>08251D</t>
-  </si>
-  <si>
-    <t>08232D</t>
-  </si>
-  <si>
-    <t>08231D</t>
-  </si>
-  <si>
-    <t>08212D</t>
-  </si>
-  <si>
-    <t>08211D</t>
-  </si>
-  <si>
-    <t>08192D</t>
-  </si>
-  <si>
-    <t>08191D</t>
-  </si>
-  <si>
-    <t>08172D</t>
-  </si>
-  <si>
-    <t>08171D</t>
-  </si>
-  <si>
-    <t>08152D</t>
-  </si>
-  <si>
-    <t>08151D</t>
-  </si>
-  <si>
-    <t>08132D</t>
-  </si>
-  <si>
-    <t>08131D</t>
-  </si>
-  <si>
-    <t>08112D</t>
-  </si>
-  <si>
-    <t>08111D</t>
-  </si>
-  <si>
-    <t>08092D</t>
-  </si>
-  <si>
-    <t>08091D</t>
-  </si>
-  <si>
-    <t>08072D</t>
-  </si>
-  <si>
-    <t>08071D</t>
-  </si>
-  <si>
-    <t>08052D</t>
-  </si>
-  <si>
-    <t>08051D</t>
-  </si>
-  <si>
-    <t>08032D</t>
-  </si>
-  <si>
-    <t>08031D</t>
-  </si>
-  <si>
-    <t>08012D</t>
-  </si>
-  <si>
-    <t>08011D</t>
-  </si>
-  <si>
-    <t>08272C</t>
-  </si>
-  <si>
-    <t>08271C</t>
-  </si>
-  <si>
-    <t>08252C</t>
-  </si>
-  <si>
-    <t>08251C</t>
-  </si>
-  <si>
-    <t>08232C</t>
-  </si>
-  <si>
-    <t>08231C</t>
-  </si>
-  <si>
-    <t>08212C</t>
-  </si>
-  <si>
-    <t>08211C</t>
-  </si>
-  <si>
-    <t>08192C</t>
-  </si>
-  <si>
-    <t>08191C</t>
-  </si>
-  <si>
-    <t>08172C</t>
-  </si>
-  <si>
-    <t>08171C</t>
-  </si>
-  <si>
-    <t>08152C</t>
-  </si>
-  <si>
-    <t>08151C</t>
-  </si>
-  <si>
-    <t>08132C</t>
-  </si>
-  <si>
-    <t>08131C</t>
-  </si>
-  <si>
-    <t>08112C</t>
-  </si>
-  <si>
-    <t>08111C</t>
-  </si>
-  <si>
-    <t>08092C</t>
-  </si>
-  <si>
-    <t>08091C</t>
-  </si>
-  <si>
-    <t>08072C</t>
-  </si>
-  <si>
-    <t>08071C</t>
-  </si>
-  <si>
-    <t>08052C</t>
-  </si>
-  <si>
-    <t>08051C</t>
-  </si>
-  <si>
-    <t>08032C</t>
-  </si>
-  <si>
-    <t>08031C</t>
-  </si>
-  <si>
-    <t>08012C</t>
-  </si>
-  <si>
-    <t>08011C</t>
-  </si>
-  <si>
-    <t>08272B</t>
-  </si>
-  <si>
-    <t>08271B</t>
-  </si>
-  <si>
-    <t>08252B</t>
-  </si>
-  <si>
-    <t>08251B</t>
-  </si>
-  <si>
-    <t>08232B</t>
-  </si>
-  <si>
-    <t>08231B</t>
-  </si>
-  <si>
-    <t>08212B</t>
-  </si>
-  <si>
-    <t>08211B</t>
-  </si>
-  <si>
-    <t>08192B</t>
-  </si>
-  <si>
-    <t>08191B</t>
-  </si>
-  <si>
-    <t>08172B</t>
-  </si>
-  <si>
-    <t>08171B</t>
-  </si>
-  <si>
-    <t>08152B</t>
-  </si>
-  <si>
-    <t>08151B</t>
-  </si>
-  <si>
-    <t>08132B</t>
-  </si>
-  <si>
-    <t>08131B</t>
-  </si>
-  <si>
-    <t>08112B</t>
-  </si>
-  <si>
-    <t>08111B</t>
-  </si>
-  <si>
-    <t>08092B</t>
-  </si>
-  <si>
-    <t>08091B</t>
-  </si>
-  <si>
-    <t>08072B</t>
-  </si>
-  <si>
-    <t>08071B</t>
-  </si>
-  <si>
-    <t>08052B</t>
-  </si>
-  <si>
-    <t>08051B</t>
-  </si>
-  <si>
-    <t>08032B</t>
-  </si>
-  <si>
-    <t>08031B</t>
-  </si>
-  <si>
-    <t>08012B</t>
-  </si>
-  <si>
-    <t>08011B</t>
-  </si>
-  <si>
-    <t>08272A</t>
-  </si>
-  <si>
-    <t>08271A</t>
-  </si>
-  <si>
-    <t>08252A</t>
-  </si>
-  <si>
-    <t>08251A</t>
-  </si>
-  <si>
-    <t>08232A</t>
-  </si>
-  <si>
-    <t>08231A</t>
-  </si>
-  <si>
-    <t>08212A</t>
-  </si>
-  <si>
-    <t>08211A</t>
-  </si>
-  <si>
-    <t>08192A</t>
-  </si>
-  <si>
-    <t>08191A</t>
-  </si>
-  <si>
-    <t>08172A</t>
-  </si>
-  <si>
-    <t>08171A</t>
-  </si>
-  <si>
-    <t>08152A</t>
-  </si>
-  <si>
-    <t>08151A</t>
-  </si>
-  <si>
-    <t>08132A</t>
-  </si>
-  <si>
-    <t>08131A</t>
-  </si>
-  <si>
-    <t>08112A</t>
-  </si>
-  <si>
-    <t>08111A</t>
-  </si>
-  <si>
-    <t>08092A</t>
-  </si>
-  <si>
-    <t>08091A</t>
-  </si>
-  <si>
-    <t>08072A</t>
-  </si>
-  <si>
-    <t>08071A</t>
-  </si>
-  <si>
-    <t>08052A</t>
-  </si>
-  <si>
-    <t>08051A</t>
-  </si>
-  <si>
-    <t>08032A</t>
-  </si>
-  <si>
-    <t>08031A</t>
-  </si>
-  <si>
-    <t>08012A</t>
-  </si>
-  <si>
-    <t>08011A</t>
+    <t>08021G</t>
+  </si>
+  <si>
+    <t>08022G</t>
+  </si>
+  <si>
+    <t>08041G</t>
+  </si>
+  <si>
+    <t>08042G</t>
+  </si>
+  <si>
+    <t>08061G</t>
+  </si>
+  <si>
+    <t>08062G</t>
+  </si>
+  <si>
+    <t>08082G</t>
+  </si>
+  <si>
+    <t>08101G</t>
+  </si>
+  <si>
+    <t>08102G</t>
+  </si>
+  <si>
+    <t>08121G</t>
+  </si>
+  <si>
+    <t>08122G</t>
+  </si>
+  <si>
+    <t>08141G</t>
+  </si>
+  <si>
+    <t>08142G</t>
+  </si>
+  <si>
+    <t>08161G</t>
+  </si>
+  <si>
+    <t>08162G</t>
+  </si>
+  <si>
+    <t>08181G</t>
+  </si>
+  <si>
+    <t>08182G</t>
+  </si>
+  <si>
+    <t>08201G</t>
+  </si>
+  <si>
+    <t>08221G</t>
+  </si>
+  <si>
+    <t>08222G</t>
+  </si>
+  <si>
+    <t>08241G</t>
+  </si>
+  <si>
+    <t>08242G</t>
+  </si>
+  <si>
+    <t>08261G</t>
+  </si>
+  <si>
+    <t>08262G</t>
+  </si>
+  <si>
+    <t>08281G</t>
+  </si>
+  <si>
+    <t>08282G</t>
+  </si>
+  <si>
+    <t>08021F</t>
+  </si>
+  <si>
+    <t>08022F</t>
+  </si>
+  <si>
+    <t>08041F</t>
+  </si>
+  <si>
+    <t>08042F</t>
+  </si>
+  <si>
+    <t>08061F</t>
+  </si>
+  <si>
+    <t>08062F</t>
+  </si>
+  <si>
+    <t>08082F</t>
+  </si>
+  <si>
+    <t>08101F</t>
+  </si>
+  <si>
+    <t>08102F</t>
+  </si>
+  <si>
+    <t>08121F</t>
+  </si>
+  <si>
+    <t>08122F</t>
+  </si>
+  <si>
+    <t>08141F</t>
+  </si>
+  <si>
+    <t>08142F</t>
+  </si>
+  <si>
+    <t>08161F</t>
+  </si>
+  <si>
+    <t>08162F</t>
+  </si>
+  <si>
+    <t>08181F</t>
+  </si>
+  <si>
+    <t>08182F</t>
+  </si>
+  <si>
+    <t>08201F</t>
+  </si>
+  <si>
+    <t>08221F</t>
+  </si>
+  <si>
+    <t>08222F</t>
+  </si>
+  <si>
+    <t>08241F</t>
+  </si>
+  <si>
+    <t>08242F</t>
+  </si>
+  <si>
+    <t>08261F</t>
+  </si>
+  <si>
+    <t>08262F</t>
+  </si>
+  <si>
+    <t>08281F</t>
+  </si>
+  <si>
+    <t>08282F</t>
+  </si>
+  <si>
+    <t>08021E</t>
+  </si>
+  <si>
+    <t>08022E</t>
+  </si>
+  <si>
+    <t>08041E</t>
+  </si>
+  <si>
+    <t>08042E</t>
+  </si>
+  <si>
+    <t>08061E</t>
+  </si>
+  <si>
+    <t>08062E</t>
+  </si>
+  <si>
+    <t>08082E</t>
+  </si>
+  <si>
+    <t>08101E</t>
+  </si>
+  <si>
+    <t>08102E</t>
+  </si>
+  <si>
+    <t>08121E</t>
+  </si>
+  <si>
+    <t>08122E</t>
+  </si>
+  <si>
+    <t>08141E</t>
+  </si>
+  <si>
+    <t>08142E</t>
+  </si>
+  <si>
+    <t>08161E</t>
+  </si>
+  <si>
+    <t>08162E</t>
+  </si>
+  <si>
+    <t>08181E</t>
+  </si>
+  <si>
+    <t>08182E</t>
+  </si>
+  <si>
+    <t>08201E</t>
+  </si>
+  <si>
+    <t>08221E</t>
+  </si>
+  <si>
+    <t>08222E</t>
+  </si>
+  <si>
+    <t>08241E</t>
+  </si>
+  <si>
+    <t>08242E</t>
+  </si>
+  <si>
+    <t>08261E</t>
+  </si>
+  <si>
+    <t>08262E</t>
+  </si>
+  <si>
+    <t>08281E</t>
+  </si>
+  <si>
+    <t>08282E</t>
+  </si>
+  <si>
+    <t>08021D</t>
+  </si>
+  <si>
+    <t>08022D</t>
+  </si>
+  <si>
+    <t>08041D</t>
+  </si>
+  <si>
+    <t>08042D</t>
+  </si>
+  <si>
+    <t>08061D</t>
+  </si>
+  <si>
+    <t>08062D</t>
+  </si>
+  <si>
+    <t>08082D</t>
+  </si>
+  <si>
+    <t>08101D</t>
+  </si>
+  <si>
+    <t>08102D</t>
+  </si>
+  <si>
+    <t>08121D</t>
+  </si>
+  <si>
+    <t>08122D</t>
+  </si>
+  <si>
+    <t>08141D</t>
+  </si>
+  <si>
+    <t>08142D</t>
+  </si>
+  <si>
+    <t>08161D</t>
+  </si>
+  <si>
+    <t>08162D</t>
+  </si>
+  <si>
+    <t>08181D</t>
+  </si>
+  <si>
+    <t>08182D</t>
+  </si>
+  <si>
+    <t>08201D</t>
+  </si>
+  <si>
+    <t>08221D</t>
+  </si>
+  <si>
+    <t>08222D</t>
+  </si>
+  <si>
+    <t>08241D</t>
+  </si>
+  <si>
+    <t>08242D</t>
+  </si>
+  <si>
+    <t>08261D</t>
+  </si>
+  <si>
+    <t>08262D</t>
+  </si>
+  <si>
+    <t>08281D</t>
+  </si>
+  <si>
+    <t>08282D</t>
+  </si>
+  <si>
+    <t>08021C</t>
+  </si>
+  <si>
+    <t>08022C</t>
+  </si>
+  <si>
+    <t>08041C</t>
+  </si>
+  <si>
+    <t>08042C</t>
+  </si>
+  <si>
+    <t>08061C</t>
+  </si>
+  <si>
+    <t>08062C</t>
+  </si>
+  <si>
+    <t>08082C</t>
+  </si>
+  <si>
+    <t>08101C</t>
+  </si>
+  <si>
+    <t>08102C</t>
+  </si>
+  <si>
+    <t>08121C</t>
+  </si>
+  <si>
+    <t>08122C</t>
+  </si>
+  <si>
+    <t>08141C</t>
+  </si>
+  <si>
+    <t>08142C</t>
+  </si>
+  <si>
+    <t>08161C</t>
+  </si>
+  <si>
+    <t>08162C</t>
+  </si>
+  <si>
+    <t>08181C</t>
+  </si>
+  <si>
+    <t>08182C</t>
+  </si>
+  <si>
+    <t>08201C</t>
+  </si>
+  <si>
+    <t>08221C</t>
+  </si>
+  <si>
+    <t>08222C</t>
+  </si>
+  <si>
+    <t>08241C</t>
+  </si>
+  <si>
+    <t>08242C</t>
+  </si>
+  <si>
+    <t>08261C</t>
+  </si>
+  <si>
+    <t>08262C</t>
+  </si>
+  <si>
+    <t>08281C</t>
+  </si>
+  <si>
+    <t>08282C</t>
+  </si>
+  <si>
+    <t>08021B</t>
+  </si>
+  <si>
+    <t>08022B</t>
+  </si>
+  <si>
+    <t>08041B</t>
+  </si>
+  <si>
+    <t>08042B</t>
+  </si>
+  <si>
+    <t>08061B</t>
+  </si>
+  <si>
+    <t>08062B</t>
+  </si>
+  <si>
+    <t>08082B</t>
+  </si>
+  <si>
+    <t>08101B</t>
+  </si>
+  <si>
+    <t>08102B</t>
+  </si>
+  <si>
+    <t>08121B</t>
+  </si>
+  <si>
+    <t>08122B</t>
+  </si>
+  <si>
+    <t>08141B</t>
+  </si>
+  <si>
+    <t>08142B</t>
+  </si>
+  <si>
+    <t>08161B</t>
+  </si>
+  <si>
+    <t>08162B</t>
+  </si>
+  <si>
+    <t>08181B</t>
+  </si>
+  <si>
+    <t>08182B</t>
+  </si>
+  <si>
+    <t>08201B</t>
+  </si>
+  <si>
+    <t>08221B</t>
+  </si>
+  <si>
+    <t>08222B</t>
+  </si>
+  <si>
+    <t>08241B</t>
+  </si>
+  <si>
+    <t>08242B</t>
+  </si>
+  <si>
+    <t>08261B</t>
+  </si>
+  <si>
+    <t>08262B</t>
+  </si>
+  <si>
+    <t>08281B</t>
+  </si>
+  <si>
+    <t>08282B</t>
+  </si>
+  <si>
+    <t>08021A</t>
+  </si>
+  <si>
+    <t>08022A</t>
+  </si>
+  <si>
+    <t>08041A</t>
+  </si>
+  <si>
+    <t>08042A</t>
+  </si>
+  <si>
+    <t>08061A</t>
+  </si>
+  <si>
+    <t>08062A</t>
+  </si>
+  <si>
+    <t>08082A</t>
+  </si>
+  <si>
+    <t>08101A</t>
+  </si>
+  <si>
+    <t>08102A</t>
+  </si>
+  <si>
+    <t>08121A</t>
+  </si>
+  <si>
+    <t>08122A</t>
+  </si>
+  <si>
+    <t>08141A</t>
+  </si>
+  <si>
+    <t>08142A</t>
+  </si>
+  <si>
+    <t>08161A</t>
+  </si>
+  <si>
+    <t>08162A</t>
+  </si>
+  <si>
+    <t>08181A</t>
+  </si>
+  <si>
+    <t>08182A</t>
+  </si>
+  <si>
+    <t>08201A</t>
+  </si>
+  <si>
+    <t>08221A</t>
+  </si>
+  <si>
+    <t>08222A</t>
+  </si>
+  <si>
+    <t>08241A</t>
+  </si>
+  <si>
+    <t>08242A</t>
+  </si>
+  <si>
+    <t>08261A</t>
+  </si>
+  <si>
+    <t>08262A</t>
+  </si>
+  <si>
+    <t>08281A</t>
+  </si>
+  <si>
+    <t>08282A</t>
+  </si>
+  <si>
+    <t>08081A</t>
+  </si>
+  <si>
+    <t>08081B</t>
+  </si>
+  <si>
+    <t>08081C</t>
+  </si>
+  <si>
+    <t>08081D</t>
+  </si>
+  <si>
+    <t>08081E</t>
+  </si>
+  <si>
+    <t>08081F</t>
+  </si>
+  <si>
+    <t>08081G</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1273,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,12 +1284,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCB"/>
         <bgColor rgb="FFFFCCCB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1351,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,13 +1422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1757,9 +1766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C30" sqref="C30:AD30"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1859,7 +1868,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1884,72 +1893,74 @@
         <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="W2" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1981,95 +1992,97 @@
       <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W4" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2101,95 +2114,97 @@
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="W6" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="10"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2221,95 +2236,97 @@
       <c r="AD7" s="7"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="V8" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="W8" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="10"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2341,95 +2358,97 @@
       <c r="AD9" s="7"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="V10" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="W10" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="10"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2461,215 +2480,219 @@
       <c r="AD11" s="7"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="V12" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="W12" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="1:30" s="17" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="O14" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Y14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AA14" s="20" t="s">
+      <c r="M14" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="AB14" s="20" t="s">
+      <c r="N14" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="O14" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" s="20" t="s">
+      <c r="P14" s="19" t="s">
         <v>190</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2704,88 +2727,88 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
@@ -2879,99 +2902,97 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>192</v>
+      <c r="A18" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>199</v>
+        <v>395</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>212</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="V18" s="11"/>
       <c r="W18" s="11" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AC18" s="11" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -3003,97 +3024,95 @@
       <c r="AD19" s="11"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>240</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="V20" s="11"/>
       <c r="W20" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AC20" s="11" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -3125,97 +3144,95 @@
       <c r="AD21" s="11"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>255</v>
+        <v>393</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>268</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="V22" s="11"/>
       <c r="W22" s="11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -3247,97 +3264,95 @@
       <c r="AD23" s="11"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>296</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="V24" s="11"/>
       <c r="W24" s="11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AD24" s="11" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="12"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -3369,97 +3384,95 @@
       <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>324</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="V26" s="11"/>
       <c r="W26" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AD26" s="11" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -3491,219 +3504,214 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>352</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="V28" s="11"/>
       <c r="W28" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AB28" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AC28" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="D30" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="E30" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="F30" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="G30" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="H30" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="I30" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="K30" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="L30" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="M30" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="N30" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="O30" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="P30" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="R30" s="20" t="s">
+      <c r="Q30" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="S30" s="20" t="s">
+      <c r="R30" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="S30" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="U30" s="20" t="s">
+      <c r="T30" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="V30" s="20" t="s">
+      <c r="U30" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="W30" s="20" t="s">
+      <c r="W30" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="X30" s="20" t="s">
+      <c r="X30" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Y30" s="20" t="s">
+      <c r="Y30" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="Z30" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AA30" s="20" t="s">
+      <c r="AA30" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AB30" s="20" t="s">
+      <c r="AB30" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="AC30" s="20" t="s">
+      <c r="AC30" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="AD30" s="20" t="s">
+      <c r="AD30" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
